--- a/stiff.xlsx
+++ b/stiff.xlsx
@@ -1,32 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_4F4680A227F6AFD111FD9890E22D62B100BEF04A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C525689-3B19-4636-BAAA-AABC4E470130}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +114,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -167,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -376,603 +411,1195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.018872870249017</v>
+        <v>1.8872870249017001E-2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>A2/1.4765679173556</f>
+        <v>1.2781579517735026E-2</v>
+      </c>
+      <c r="D2">
+        <f>B2/1.4765679173556</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.037745740498034</v>
+        <v>3.7745740498034003E-2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" ref="C3:D66" si="0">A3/1.4765679173556</f>
+        <v>2.5563159035470052E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.0534731323722149</v>
+        <v>5.3473132372214897E-2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.6214475300249287E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.0754914809960681</v>
+        <v>7.5491480996068103E-2</v>
       </c>
       <c r="B5">
-        <v>0.0068846815834767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6.8846815834767002E-3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5.1126318070940174E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.6626243889996907E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.08964613368283091</v>
+        <v>8.9646133682830906E-2</v>
       </c>
       <c r="B6">
-        <v>0.0068846815834767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6.8846815834767002E-3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6.071250270924148E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.6626243889996907E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.1053735255570117</v>
       </c>
       <c r="B7">
-        <v>0.0068846815834767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>6.8846815834767002E-3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.1363818974020637E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.6626243889996907E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.127391874180865</v>
+        <v>0.12739187418086501</v>
       </c>
       <c r="B8">
-        <v>0.0068846815834767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>6.8846815834767002E-3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8.6275661744711601E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.6626243889996907E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.1509829619921363</v>
+        <v>0.15098296199213629</v>
       </c>
       <c r="B9">
-        <v>0.0137693631669535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>1.3769363166953499E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.1022526361418804</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9.3252487779994491E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.1745740498034075</v>
+        <v>0.17457404980340749</v>
       </c>
       <c r="B10">
-        <v>0.027538726333907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>2.7538726333906999E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.11822961053904915</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.8650497555998898E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.1918741808650065</v>
+        <v>0.19187418086500649</v>
       </c>
       <c r="B11">
-        <v>0.0344234079173838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>3.4423407917383797E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.12994605843030632</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.3313121944998655E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.218610747051114</v>
       </c>
       <c r="B12">
-        <v>0.0481927710843373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>4.8192771084337303E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.148053296080431</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.2638370722998113E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.2406290956749672</v>
+        <v>0.24062909567496721</v>
       </c>
       <c r="B13">
-        <v>0.06884681583476759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>6.8846815834767594E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.16296513885112188</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4.662624388999731E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.2642201834862385</v>
+        <v>0.26422018348623849</v>
       </c>
       <c r="B14">
-        <v>0.0963855421686747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.17894211324829071</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6.5276741445996281E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.2799475753604193</v>
+        <v>0.27994757536041931</v>
       </c>
       <c r="B15">
         <v>0.1308089500860585</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.18959342951306987</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>8.8589863390994936E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.3003931847968545</v>
+        <v>0.30039318479685451</v>
       </c>
       <c r="B16">
-        <v>0.1790017211703958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.17900172117039581</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.20344014065728289</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.12122823411399306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.3145478374836172</v>
       </c>
       <c r="B17">
-        <v>0.2203098106712564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.22030981067125641</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.21302632529558413</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.14920398044799146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.3271297509829619</v>
+        <v>0.32712975098296188</v>
       </c>
       <c r="B18">
         <v>0.261617900172117</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.22154737830740748</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.17717972678198987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.3381389252948885</v>
+        <v>0.33813892529488848</v>
       </c>
       <c r="B19">
-        <v>0.3235800344234079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.32358003442340788</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.22900329969275293</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.21914334628298748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.3491480996068151</v>
+        <v>0.34914809960681509</v>
       </c>
       <c r="B20">
-        <v>0.3717728055077453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.37177280550774527</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.23645922107809839</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.25178171700598567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.3585845347313237</v>
+        <v>0.35858453473132368</v>
       </c>
       <c r="B21">
         <v>0.4337349397590361</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.24285001083696595</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.29374533650698326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.3711664482306683</v>
       </c>
       <c r="B22">
-        <v>0.495697074010327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.49569707401032698</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.25137106384878927</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.33570895600798084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.3774574049803407</v>
+        <v>0.37745740498034069</v>
       </c>
       <c r="B23">
         <v>0.5507745266781412</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.25563159035470101</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.37300995111997881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.3884665792922673</v>
       </c>
       <c r="B24">
-        <v>0.6196213425129088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.61962134251290879</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.26308751174004641</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.41963619500997612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.3963302752293577</v>
+        <v>0.39633027522935771</v>
       </c>
       <c r="B25">
-        <v>0.6815834767641997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.68158347676419972</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.26841316987243602</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.46159981451097376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.4041939711664482</v>
+        <v>0.40419397116644817</v>
       </c>
       <c r="B26">
-        <v>0.7504302925989673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.75043029259896732</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.27373882800482563</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.50822605840097101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.4120576671035386</v>
+        <v>0.41205766710353858</v>
       </c>
       <c r="B27">
-        <v>0.8261617900172117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.82616179001721168</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.27906448613721524</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.55951492667996816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.4214941022280471</v>
+        <v>0.42149410222804712</v>
       </c>
       <c r="B28">
-        <v>0.9018932874354562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.90189328743545616</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.28545527589608277</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.6108037949589652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.4325032765399737</v>
+        <v>0.43250327653997372</v>
       </c>
       <c r="B29">
-        <v>0.963855421686747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.96385542168674698</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.29291119728142823</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.65276741445996278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.4419397116644822</v>
       </c>
       <c r="B30">
         <v>1.01893287435456</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.2993019870402957</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.69006840957195992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.4513761467889908</v>
       </c>
       <c r="B31">
         <v>1.07401032702237</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.30569277679916329</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.72736940468395506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.4623853211009174</v>
       </c>
       <c r="B32">
-        <v>1.13597246127366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.1359724612736599</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.31314869818450874</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.76933302418495197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.4718217562254259</v>
+        <v>0.47182175622542588</v>
       </c>
       <c r="B33">
-        <v>1.20481927710843</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>1.2048192771084301</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.31953948794337622</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.81595926807495101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.4812581913499344</v>
+        <v>0.48125819134993442</v>
       </c>
       <c r="B34">
         <v>1.26678141135972</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.32593027770224375</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.85792288757594803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.4938401048492791</v>
+        <v>0.49384010484927909</v>
       </c>
       <c r="B35">
-        <v>1.32185886402753</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>1.3218588640275299</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.33445133071406713</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.89522388268794306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.5048492791612057</v>
       </c>
       <c r="B36">
-        <v>1.39759036144578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1.3975903614457801</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.34190725209941258</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.94651275096694398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.5142857142857142</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="B37">
         <v>1.46643717728055</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.34829804185828012</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.9931389948569429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.5252948885976408</v>
+        <v>0.52529488859764084</v>
       </c>
       <c r="B38">
-        <v>1.53528399311531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>1.5352839931153099</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.35575396324362557</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1.0397652387469349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.5347313237221494</v>
+        <v>0.53473132372214938</v>
       </c>
       <c r="B39">
-        <v>1.61101549053356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1.6110154905335601</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.3621447530024931</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1.0910541070259361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.5441677588466579</v>
+        <v>0.54416775884665791</v>
       </c>
       <c r="B40">
         <v>1.67986230636833</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.36853554276136063</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1.1376803509159348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.5536041939711664</v>
+        <v>0.55360419397116645</v>
       </c>
       <c r="B41">
-        <v>1.74182444061962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1.7418244406196199</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.37492633252022817</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1.1796439704169319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.5614678899082568</v>
       </c>
       <c r="B42">
-        <v>1.80378657487091</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>1.8037865748709101</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.38025199065261772</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1.2216075899179291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.5724770642201834</v>
+        <v>0.57247706422018341</v>
       </c>
       <c r="B43">
         <v>1.87263339070568</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.38770791203796318</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1.2682338338079278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.5803407601572739</v>
+        <v>0.58034076015727387</v>
       </c>
       <c r="B44">
         <v>1.92771084337349</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.39303357017035279</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1.3055348289199229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.5882044560943643</v>
+        <v>0.58820445609436434</v>
       </c>
       <c r="B45">
-        <v>1.99655765920826</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>1.9965576592082599</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.39835922830274245</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1.3521610728099218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.5960681520314547</v>
+        <v>0.59606815203145469</v>
       </c>
       <c r="B46">
-        <v>2.05851979345955</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>2.0585197934595501</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.40368488643513201</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1.394124692310919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.6055045871559632</v>
+        <v>0.60550458715596323</v>
       </c>
       <c r="B47">
         <v>2.12048192771084</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.41007567619399954</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.4360883118119159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.6149410222804718</v>
+        <v>0.61494102228047176</v>
       </c>
       <c r="B48">
-        <v>2.19621342512908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>2.1962134251290801</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.41646646595286707</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1.4873771800909101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.6228047182175622</v>
+        <v>0.62280471821756223</v>
       </c>
       <c r="B49">
-        <v>2.26506024096385</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>2.2650602409638498</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.42179212408525668</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1.5340034239809088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.6322411533420708</v>
+        <v>0.63224115334207076</v>
       </c>
       <c r="B50">
         <v>2.33390705679862</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.42818291384412421</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1.580629667870908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.6432503276539974</v>
+        <v>0.64325032765399737</v>
       </c>
       <c r="B51">
-        <v>2.43029259896729</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>2.4302925989672901</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.43563883522946967</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.6459064093169011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.6511140235910877</v>
+        <v>0.65111402359108772</v>
       </c>
       <c r="B52">
         <v>2.49225473321858</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.44096449336185922</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.687870028817898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.6589777195281782</v>
+        <v>0.65897771952817819</v>
       </c>
       <c r="B53">
         <v>2.5473321858864</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.44629015149424883</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.7251710239298998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.6652686762778505</v>
+        <v>0.66526867627785047</v>
       </c>
       <c r="B54">
-        <v>2.60929432013769</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>2.6092943201376899</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.45055067800016046</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1.7671346434308968</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.6731323722149409</v>
+        <v>0.67313237221494093</v>
       </c>
       <c r="B55">
-        <v>2.67814113597246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>2.6781411359724601</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.45587633613255013</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.8137608873208959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.6809960681520314</v>
       </c>
       <c r="B56">
         <v>2.74010327022375</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.46120199426493974</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.8557245068218928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.6872870249017037</v>
+        <v>0.68728702490170368</v>
       </c>
       <c r="B57">
-        <v>2.80895008605851</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>2.8089500860585099</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.46546252077085137</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.9023507507118849</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.6951507208387941</v>
+        <v>0.69515072083879414</v>
       </c>
       <c r="B58">
-        <v>2.87091222030981</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>2.8709122203098101</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.47078817890324098</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.9443143702128889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.7030144167758846</v>
+        <v>0.70301441677588461</v>
       </c>
       <c r="B59">
-        <v>2.94664371772805</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>2.9466437177280498</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.47611383703563065</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.9956032384918827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.7108781127129751</v>
+        <v>0.71087811271297507</v>
       </c>
       <c r="B60">
-        <v>3.02237521514629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>3.0223752151462899</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.48143949516802026</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>2.0468921067708767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.7187418086500654</v>
+        <v>0.71874180865006543</v>
       </c>
       <c r="B61">
-        <v>3.07745266781411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>3.0774526678141099</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.48676515330040981</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>2.0841931018828785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.7266055045871559</v>
+        <v>0.72660550458715589</v>
       </c>
       <c r="B62">
-        <v>3.1394148020654</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>3.1394148020653998</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.49209081143279942</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>2.1261567213838757</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.7313237221494101</v>
       </c>
       <c r="B63">
-        <v>3.20826161790017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>3.2082616179001699</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.49528620631223319</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>2.1727829652738748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.7423328964613367</v>
+        <v>0.74233289646133671</v>
       </c>
       <c r="B64">
-        <v>3.27710843373493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>3.2771084337349299</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.50274212769757864</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>2.2194092091638669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.7486238532110091</v>
       </c>
       <c r="B65">
         <v>3.3459552495697</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.50700265420349033</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>2.266035453053866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.7564875491480996</v>
+        <v>0.75648754914809957</v>
       </c>
       <c r="B66">
-        <v>3.42857142857142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>3.4285714285714199</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0.51232831233587994</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>2.321986945721862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.7627785058977719</v>
+        <v>0.76277850589777185</v>
       </c>
       <c r="B67">
-        <v>3.49741824440619</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>3.4974182444061901</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:D74" si="1">A67/1.4765679173556</f>
+        <v>0.51658883884179163</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>2.3686131896118607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.7706422018348623</v>
+        <v>0.77064220183486232</v>
       </c>
       <c r="B68">
-        <v>3.56626506024096</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>3.5662650602409598</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.52191449697418124</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>2.4152394335018594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.7785058977719528</v>
+        <v>0.77850589777195278</v>
       </c>
       <c r="B69">
         <v>3.62134251290877</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.52724015510657085</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>2.452540428613855</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.7847968545216251</v>
+        <v>0.78479685452162506</v>
       </c>
       <c r="B70">
-        <v>3.69018932874354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>3.6901893287435401</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0.53150068161248254</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>2.4991666725038537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.7926605504587155</v>
+        <v>0.79266055045871553</v>
       </c>
       <c r="B71">
-        <v>3.75903614457831</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>3.7590361445783098</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.53682633974487215</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>2.5457929163938524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.7989515072083878</v>
+        <v>0.79895150720838781</v>
       </c>
       <c r="B72">
-        <v>3.8209982788296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>3.8209982788296002</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0.54108686625078373</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>2.58775653589485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.8036697247706421</v>
+        <v>0.80366972477064214</v>
       </c>
       <c r="B73">
-        <v>3.88296041308089</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>3.8829604130808901</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0.5442822611302176</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>2.6297201553958467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.8115334207077326</v>
       </c>
       <c r="B74">
-        <v>3.95180722891566</v>
+        <v>3.9518072289156598</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0.54960791926260721</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>2.6763463992858458</v>
       </c>
     </row>
   </sheetData>

--- a/stiff.xlsx
+++ b/stiff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_4F4680A227F6AFD111FD9890E22D62B100BEF04A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C525689-3B19-4636-BAAA-AABC4E470130}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_4F4680A227F6AFD111FD9890E22D62B100BEF04A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D6A5086-11EB-4DF4-9681-5441BB263747}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,6 +123,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,11 +418,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -442,11 +449,11 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>A2/1.4765679173556</f>
-        <v>1.2781579517735026E-2</v>
+        <f>A2/1.4765679173556 * 10^(-3)</f>
+        <v>1.2781579517735027E-5</v>
       </c>
       <c r="D2">
-        <f>B2/1.4765679173556</f>
+        <f>B2/1.4765679173556 * 10^(-4)</f>
         <v>0</v>
       </c>
     </row>
@@ -458,11 +465,11 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D66" si="0">A3/1.4765679173556</f>
-        <v>2.5563159035470052E-2</v>
+        <f t="shared" ref="C3:C66" si="0">A3/1.4765679173556 * 10^(-3)</f>
+        <v>2.5563159035470054E-5</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D66" si="1">B3/1.4765679173556 * 10^(-4)</f>
         <v>0</v>
       </c>
     </row>
@@ -475,10 +482,10 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.6214475300249287E-2</v>
+        <v>3.6214475300249289E-5</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -491,11 +498,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.1126318070940174E-2</v>
+        <v>5.1126318070940176E-5</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4.6626243889996907E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889996912E-7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,11 +514,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6.071250270924148E-2</v>
+        <v>6.071250270924148E-5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4.6626243889996907E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889996912E-7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -523,11 +530,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>7.1363818974020637E-2</v>
+        <v>7.136381897402064E-5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4.6626243889996907E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889996912E-7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,11 +546,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>8.6275661744711601E-2</v>
+        <v>8.6275661744711609E-5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>4.6626243889996907E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889996912E-7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,11 +562,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.1022526361418804</v>
+        <v>1.0225263614188041E-4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>9.3252487779994491E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3252487779994501E-7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -571,11 +578,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.11822961053904915</v>
+        <v>1.1822961053904915E-4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.8650497555998898E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.86504975559989E-6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,11 +594,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.12994605843030632</v>
+        <v>1.2994605843030633E-4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2.3313121944998655E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3313121944998655E-6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -603,11 +610,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.148053296080431</v>
+        <v>1.4805329608043099E-4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>3.2638370722998113E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2638370722998113E-6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -619,11 +626,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.16296513885112188</v>
+        <v>1.6296513885112189E-4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>4.662624388999731E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.662624388999731E-6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -635,11 +642,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.17894211324829071</v>
+        <v>1.789421132482907E-4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>6.5276741445996281E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5276741445996286E-6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -651,11 +658,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.18959342951306987</v>
+        <v>1.8959342951306988E-4</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>8.8589863390994936E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.8589863390994941E-6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,11 +674,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.20344014065728289</v>
+        <v>2.034401406572829E-4</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.12122823411399306</v>
+        <f t="shared" si="1"/>
+        <v>1.2122823411399306E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -683,11 +690,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.21302632529558413</v>
+        <v>2.1302632529558415E-4</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.14920398044799146</v>
+        <f t="shared" si="1"/>
+        <v>1.4920398044799147E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,11 +706,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.22154737830740748</v>
+        <v>2.2154737830740748E-4</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.17717972678198987</v>
+        <f t="shared" si="1"/>
+        <v>1.7717972678198988E-5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -715,11 +722,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.22900329969275293</v>
+        <v>2.2900329969275293E-4</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.21914334628298748</v>
+        <f t="shared" si="1"/>
+        <v>2.1914334628298748E-5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -731,11 +738,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.23645922107809839</v>
+        <v>2.3645922107809838E-4</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.25178171700598567</v>
+        <f t="shared" si="1"/>
+        <v>2.5178171700598569E-5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -747,11 +754,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.24285001083696595</v>
+        <v>2.4285001083696595E-4</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.29374533650698326</v>
+        <f t="shared" si="1"/>
+        <v>2.9374533650698328E-5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -763,11 +770,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.25137106384878927</v>
+        <v>2.5137106384878928E-4</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.33570895600798084</v>
+        <f t="shared" si="1"/>
+        <v>3.3570895600798085E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -779,11 +786,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.25563159035470101</v>
+        <v>2.5563159035470103E-4</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.37300995111997881</v>
+        <f t="shared" si="1"/>
+        <v>3.7300995111997882E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -795,11 +802,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.26308751174004641</v>
+        <v>2.630875117400464E-4</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.41963619500997612</v>
+        <f t="shared" si="1"/>
+        <v>4.1963619500997611E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -811,11 +818,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.26841316987243602</v>
+        <v>2.68413169872436E-4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.46159981451097376</v>
+        <f t="shared" si="1"/>
+        <v>4.6159981451097377E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -827,11 +834,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.27373882800482563</v>
+        <v>2.7373882800482566E-4</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.50822605840097101</v>
+        <f t="shared" si="1"/>
+        <v>5.0822605840097107E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,11 +850,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.27906448613721524</v>
+        <v>2.7906448613721526E-4</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.55951492667996816</v>
+        <f t="shared" si="1"/>
+        <v>5.5951492667996819E-5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,11 +866,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.28545527589608277</v>
+        <v>2.8545527589608278E-4</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.6108037949589652</v>
+        <f t="shared" si="1"/>
+        <v>6.1080379495896518E-5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -875,11 +882,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.29291119728142823</v>
+        <v>2.9291119728142826E-4</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.65276741445996278</v>
+        <f t="shared" si="1"/>
+        <v>6.5276741445996278E-5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,11 +898,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.2993019870402957</v>
+        <v>2.9930198704029571E-4</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.69006840957195992</v>
+        <f t="shared" si="1"/>
+        <v>6.9006840957195993E-5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,11 +914,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.30569277679916329</v>
+        <v>3.0569277679916328E-4</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.72736940468395506</v>
+        <f t="shared" si="1"/>
+        <v>7.2736940468395506E-5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,11 +930,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.31314869818450874</v>
+        <v>3.1314869818450876E-4</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.76933302418495197</v>
+        <f t="shared" si="1"/>
+        <v>7.6933302418495198E-5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,11 +946,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.31953948794337622</v>
+        <v>3.1953948794337622E-4</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.81595926807495101</v>
+        <f t="shared" si="1"/>
+        <v>8.159592680749511E-5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,11 +962,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.32593027770224375</v>
+        <v>3.2593027770224379E-4</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.85792288757594803</v>
+        <f t="shared" si="1"/>
+        <v>8.5792288757594802E-5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,11 +978,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.33445133071406713</v>
+        <v>3.3445133071406712E-4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.89522388268794306</v>
+        <f t="shared" si="1"/>
+        <v>8.9522388268794314E-5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,11 +994,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.34190725209941258</v>
+        <v>3.419072520994126E-4</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.94651275096694398</v>
+        <f t="shared" si="1"/>
+        <v>9.4651275096694406E-5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,11 +1010,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.34829804185828012</v>
+        <v>3.4829804185828011E-4</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0.9931389948569429</v>
+        <f t="shared" si="1"/>
+        <v>9.9313899485694291E-5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,11 +1026,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.35575396324362557</v>
+        <v>3.5575396324362559E-4</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1.0397652387469349</v>
+        <f t="shared" si="1"/>
+        <v>1.039765238746935E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1035,11 +1042,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.3621447530024931</v>
+        <v>3.621447530024931E-4</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1.0910541070259361</v>
+        <f t="shared" si="1"/>
+        <v>1.0910541070259362E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,11 +1058,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.36853554276136063</v>
+        <v>3.6853554276136062E-4</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1.1376803509159348</v>
+        <f t="shared" si="1"/>
+        <v>1.1376803509159349E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,11 +1074,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.37492633252022817</v>
+        <v>3.7492633252022818E-4</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1.1796439704169319</v>
+        <f t="shared" si="1"/>
+        <v>1.1796439704169319E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,11 +1090,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.38025199065261772</v>
+        <v>3.8025199065261773E-4</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>1.2216075899179291</v>
+        <f t="shared" si="1"/>
+        <v>1.221607589917929E-4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,11 +1106,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.38770791203796318</v>
+        <v>3.8770791203796316E-4</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>1.2682338338079278</v>
+        <f t="shared" si="1"/>
+        <v>1.2682338338079277E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,11 +1122,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.39303357017035279</v>
+        <v>3.9303357017035282E-4</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>1.3055348289199229</v>
+        <f t="shared" si="1"/>
+        <v>1.3055348289199228E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,11 +1138,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.39835922830274245</v>
+        <v>3.9835922830274247E-4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1.3521610728099218</v>
+        <f t="shared" si="1"/>
+        <v>1.3521610728099218E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,11 +1154,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.40368488643513201</v>
+        <v>4.0368488643513202E-4</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1.394124692310919</v>
+        <f t="shared" si="1"/>
+        <v>1.3941246923109192E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1163,11 +1170,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.41007567619399954</v>
+        <v>4.1007567619399954E-4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1.4360883118119159</v>
+        <f t="shared" si="1"/>
+        <v>1.4360883118119159E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,11 +1186,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.41646646595286707</v>
+        <v>4.164664659528671E-4</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1.4873771800909101</v>
+        <f t="shared" si="1"/>
+        <v>1.4873771800909101E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,11 +1202,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.42179212408525668</v>
+        <v>4.2179212408525671E-4</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1.5340034239809088</v>
+        <f t="shared" si="1"/>
+        <v>1.5340034239809088E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,11 +1218,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.42818291384412421</v>
+        <v>4.2818291384412422E-4</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1.580629667870908</v>
+        <f t="shared" si="1"/>
+        <v>1.5806296678709081E-4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,11 +1234,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.43563883522946967</v>
+        <v>4.356388352294697E-4</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>1.6459064093169011</v>
+        <f t="shared" si="1"/>
+        <v>1.6459064093169012E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,11 +1250,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.44096449336185922</v>
+        <v>4.4096449336185925E-4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1.687870028817898</v>
+        <f t="shared" si="1"/>
+        <v>1.687870028817898E-4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1259,11 +1266,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.44629015149424883</v>
+        <v>4.4629015149424885E-4</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>1.7251710239298998</v>
+        <f t="shared" si="1"/>
+        <v>1.7251710239298999E-4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1275,11 +1282,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.45055067800016046</v>
+        <v>4.5055067800016049E-4</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>1.7671346434308968</v>
+        <f t="shared" si="1"/>
+        <v>1.767134643430897E-4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1291,11 +1298,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.45587633613255013</v>
+        <v>4.5587633613255015E-4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>1.8137608873208959</v>
+        <f t="shared" si="1"/>
+        <v>1.8137608873208959E-4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,11 +1314,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.46120199426493974</v>
+        <v>4.6120199426493975E-4</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>1.8557245068218928</v>
+        <f t="shared" si="1"/>
+        <v>1.855724506821893E-4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,11 +1330,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.46546252077085137</v>
+        <v>4.6546252077085139E-4</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>1.9023507507118849</v>
+        <f t="shared" si="1"/>
+        <v>1.9023507507118849E-4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,11 +1346,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.47078817890324098</v>
+        <v>4.70788178903241E-4</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>1.9443143702128889</v>
+        <f t="shared" si="1"/>
+        <v>1.944314370212889E-4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1355,11 +1362,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.47611383703563065</v>
+        <v>4.7611383703563065E-4</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>1.9956032384918827</v>
+        <f t="shared" si="1"/>
+        <v>1.9956032384918829E-4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1371,11 +1378,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.48143949516802026</v>
+        <v>4.8143949516802026E-4</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>2.0468921067708767</v>
+        <f t="shared" si="1"/>
+        <v>2.0468921067708768E-4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,11 +1394,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.48676515330040981</v>
+        <v>4.8676515330040981E-4</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>2.0841931018828785</v>
+        <f t="shared" si="1"/>
+        <v>2.0841931018828787E-4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1403,11 +1410,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.49209081143279942</v>
+        <v>4.9209081143279947E-4</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>2.1261567213838757</v>
+        <f t="shared" si="1"/>
+        <v>2.1261567213838757E-4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,11 +1426,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.49528620631223319</v>
+        <v>4.9528620631223319E-4</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>2.1727829652738748</v>
+        <f t="shared" si="1"/>
+        <v>2.172782965273875E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,11 +1442,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.50274212769757864</v>
+        <v>5.0274212769757867E-4</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>2.2194092091638669</v>
+        <f t="shared" si="1"/>
+        <v>2.2194092091638669E-4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,11 +1458,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.50700265420349033</v>
+        <v>5.0700265420349031E-4</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>2.266035453053866</v>
+        <f t="shared" si="1"/>
+        <v>2.2660354530538662E-4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,11 +1474,11 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>0.51232831233587994</v>
+        <v>5.1232831233587997E-4</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>2.321986945721862</v>
+        <f t="shared" si="1"/>
+        <v>2.3219869457218623E-4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,12 +1489,12 @@
         <v>3.4974182444061901</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:D74" si="1">A67/1.4765679173556</f>
-        <v>0.51658883884179163</v>
+        <f t="shared" ref="C67:C74" si="2">A67/1.4765679173556 * 10^(-3)</f>
+        <v>5.1658883884179161E-4</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>2.3686131896118607</v>
+        <f t="shared" ref="D67:D74" si="3">B67/1.4765679173556 * 10^(-4)</f>
+        <v>2.368613189611861E-4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,12 +1505,12 @@
         <v>3.5662650602409598</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0.52191449697418124</v>
+        <f t="shared" si="2"/>
+        <v>5.2191449697418127E-4</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>2.4152394335018594</v>
+        <f t="shared" si="3"/>
+        <v>2.4152394335018594E-4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,12 +1521,12 @@
         <v>3.62134251290877</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0.52724015510657085</v>
+        <f t="shared" si="2"/>
+        <v>5.2724015510657082E-4</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>2.452540428613855</v>
+        <f t="shared" si="3"/>
+        <v>2.4525404286138554E-4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,12 +1537,12 @@
         <v>3.6901893287435401</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0.53150068161248254</v>
+        <f t="shared" si="2"/>
+        <v>5.3150068161248256E-4</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>2.4991666725038537</v>
+        <f t="shared" si="3"/>
+        <v>2.4991666725038541E-4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1546,12 +1553,12 @@
         <v>3.7590361445783098</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0.53682633974487215</v>
+        <f t="shared" si="2"/>
+        <v>5.3682633974487211E-4</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>2.5457929163938524</v>
+        <f t="shared" si="3"/>
+        <v>2.5457929163938528E-4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,12 +1569,12 @@
         <v>3.8209982788296002</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0.54108686625078373</v>
+        <f t="shared" si="2"/>
+        <v>5.4108686625078375E-4</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>2.58775653589485</v>
+        <f t="shared" si="3"/>
+        <v>2.5877565358948504E-4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,12 +1585,12 @@
         <v>3.8829604130808901</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0.5442822611302176</v>
+        <f t="shared" si="2"/>
+        <v>5.4428226113021759E-4</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>2.6297201553958467</v>
+        <f t="shared" si="3"/>
+        <v>2.6297201553958469E-4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1594,12 +1601,12 @@
         <v>3.9518072289156598</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0.54960791926260721</v>
+        <f t="shared" si="2"/>
+        <v>5.4960791926260725E-4</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>2.6763463992858458</v>
+        <f t="shared" si="3"/>
+        <v>2.6763463992858462E-4</v>
       </c>
     </row>
   </sheetData>

--- a/stiff.xlsx
+++ b/stiff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/eos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_4F4680A227F6AFD111FD9890E22D62B100BEF04A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D6A5086-11EB-4DF4-9681-5441BB263747}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_4F4680A227F6AFD111FD9890E22D62B100BEF04A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BBACE8E-57A5-475D-AD6B-9F327E86BBEA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31980" yWindow="3180" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,62 +439,62 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.8872870249017001E-2</v>
+        <v>5.3473132372214897E-2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>A2/1.4765679173556 * 10^(-3)</f>
-        <v>1.2781579517735027E-5</v>
+        <f t="shared" ref="C2:C64" si="0">A2/1.4765679173556 * 10^(-3)</f>
+        <v>3.6214475300249289E-5</v>
       </c>
       <c r="D2">
-        <f>B2/1.4765679173556 * 10^(-4)</f>
+        <f t="shared" ref="D2:D64" si="1">B2/1.4765679173556 * 10^(-4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3.7745740498034003E-2</v>
+        <v>7.5491480996068103E-2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.8846815834767002E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">A3/1.4765679173556 * 10^(-3)</f>
-        <v>2.5563159035470054E-5</v>
+        <f t="shared" si="0"/>
+        <v>5.1126318070940176E-5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">B3/1.4765679173556 * 10^(-4)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889996912E-7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5.3473132372214897E-2</v>
+        <v>8.9646133682830906E-2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6.8846815834767002E-3</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.6214475300249289E-5</v>
+        <v>6.071250270924148E-5</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6626243889996912E-7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7.5491480996068103E-2</v>
+        <v>0.1053735255570117</v>
       </c>
       <c r="B5">
         <v>6.8846815834767002E-3</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.1126318070940176E-5</v>
+        <v>7.136381897402064E-5</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -507,14 +503,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8.9646133682830906E-2</v>
+        <v>0.12739187418086501</v>
       </c>
       <c r="B6">
         <v>6.8846815834767002E-3</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6.071250270924148E-5</v>
+        <v>8.6275661744711609E-5</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -523,1088 +519,1056 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.1053735255570117</v>
+        <v>0.15098296199213629</v>
       </c>
       <c r="B7">
-        <v>6.8846815834767002E-3</v>
+        <v>1.3769363166953499E-2</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>7.136381897402064E-5</v>
+        <v>1.0225263614188041E-4</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>4.6626243889996912E-7</v>
+        <v>9.3252487779994501E-7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.12739187418086501</v>
+        <v>0.17457404980340749</v>
       </c>
       <c r="B8">
-        <v>6.8846815834767002E-3</v>
+        <v>2.7538726333906999E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>8.6275661744711609E-5</v>
+        <v>1.1822961053904915E-4</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>4.6626243889996912E-7</v>
+        <v>1.86504975559989E-6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.15098296199213629</v>
+        <v>0.19187418086500649</v>
       </c>
       <c r="B9">
-        <v>1.3769363166953499E-2</v>
+        <v>3.4423407917383797E-2</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.0225263614188041E-4</v>
+        <v>1.2994605843030633E-4</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>9.3252487779994501E-7</v>
+        <v>2.3313121944998655E-6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.17457404980340749</v>
+        <v>0.218610747051114</v>
       </c>
       <c r="B10">
-        <v>2.7538726333906999E-2</v>
+        <v>4.8192771084337303E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1.1822961053904915E-4</v>
+        <v>1.4805329608043099E-4</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.86504975559989E-6</v>
+        <v>3.2638370722998113E-6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.19187418086500649</v>
+        <v>0.24062909567496721</v>
       </c>
       <c r="B11">
-        <v>3.4423407917383797E-2</v>
+        <v>6.8846815834767594E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.2994605843030633E-4</v>
+        <v>1.6296513885112189E-4</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>2.3313121944998655E-6</v>
+        <v>4.662624388999731E-6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.218610747051114</v>
+        <v>0.26422018348623849</v>
       </c>
       <c r="B12">
-        <v>4.8192771084337303E-2</v>
+        <v>9.6385542168674704E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.4805329608043099E-4</v>
+        <v>1.789421132482907E-4</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>3.2638370722998113E-6</v>
+        <v>6.5276741445996286E-6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.24062909567496721</v>
+        <v>0.27994757536041931</v>
       </c>
       <c r="B13">
-        <v>6.8846815834767594E-2</v>
+        <v>0.1308089500860585</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1.6296513885112189E-4</v>
+        <v>1.8959342951306988E-4</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>4.662624388999731E-6</v>
+        <v>8.8589863390994941E-6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.26422018348623849</v>
+        <v>0.30039318479685451</v>
       </c>
       <c r="B14">
-        <v>9.6385542168674704E-2</v>
+        <v>0.17900172117039581</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1.789421132482907E-4</v>
+        <v>2.034401406572829E-4</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>6.5276741445996286E-6</v>
+        <v>1.2122823411399306E-5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.27994757536041931</v>
+        <v>0.3145478374836172</v>
       </c>
       <c r="B15">
-        <v>0.1308089500860585</v>
+        <v>0.22030981067125641</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1.8959342951306988E-4</v>
+        <v>2.1302632529558415E-4</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>8.8589863390994941E-6</v>
+        <v>1.4920398044799147E-5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.30039318479685451</v>
+        <v>0.32712975098296188</v>
       </c>
       <c r="B16">
-        <v>0.17900172117039581</v>
+        <v>0.261617900172117</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>2.034401406572829E-4</v>
+        <v>2.2154737830740748E-4</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.2122823411399306E-5</v>
+        <v>1.7717972678198988E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.3145478374836172</v>
+        <v>0.33813892529488848</v>
       </c>
       <c r="B17">
-        <v>0.22030981067125641</v>
+        <v>0.32358003442340788</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2.1302632529558415E-4</v>
+        <v>2.2900329969275293E-4</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.4920398044799147E-5</v>
+        <v>2.1914334628298748E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.32712975098296188</v>
+        <v>0.34914809960681509</v>
       </c>
       <c r="B18">
-        <v>0.261617900172117</v>
+        <v>0.37177280550774527</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2.2154737830740748E-4</v>
+        <v>2.3645922107809838E-4</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.7717972678198988E-5</v>
+        <v>2.5178171700598569E-5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.33813892529488848</v>
+        <v>0.35858453473132368</v>
       </c>
       <c r="B19">
-        <v>0.32358003442340788</v>
+        <v>0.4337349397590361</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2.2900329969275293E-4</v>
+        <v>2.4285001083696595E-4</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>2.1914334628298748E-5</v>
+        <v>2.9374533650698328E-5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.34914809960681509</v>
+        <v>0.3711664482306683</v>
       </c>
       <c r="B20">
-        <v>0.37177280550774527</v>
+        <v>0.49569707401032698</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.3645922107809838E-4</v>
+        <v>2.5137106384878928E-4</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>2.5178171700598569E-5</v>
+        <v>3.3570895600798085E-5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.35858453473132368</v>
+        <v>0.37745740498034069</v>
       </c>
       <c r="B21">
-        <v>0.4337349397590361</v>
+        <v>0.5507745266781412</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2.4285001083696595E-4</v>
+        <v>2.5563159035470103E-4</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>2.9374533650698328E-5</v>
+        <v>3.7300995111997882E-5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.3711664482306683</v>
+        <v>0.3884665792922673</v>
       </c>
       <c r="B22">
-        <v>0.49569707401032698</v>
+        <v>0.61962134251290879</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>2.5137106384878928E-4</v>
+        <v>2.630875117400464E-4</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>3.3570895600798085E-5</v>
+        <v>4.1963619500997611E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.37745740498034069</v>
+        <v>0.39633027522935771</v>
       </c>
       <c r="B23">
-        <v>0.5507745266781412</v>
+        <v>0.68158347676419972</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2.5563159035470103E-4</v>
+        <v>2.68413169872436E-4</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.7300995111997882E-5</v>
+        <v>4.6159981451097377E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.3884665792922673</v>
+        <v>0.40419397116644817</v>
       </c>
       <c r="B24">
-        <v>0.61962134251290879</v>
+        <v>0.75043029259896732</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>2.630875117400464E-4</v>
+        <v>2.7373882800482566E-4</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>4.1963619500997611E-5</v>
+        <v>5.0822605840097107E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.39633027522935771</v>
+        <v>0.41205766710353858</v>
       </c>
       <c r="B25">
-        <v>0.68158347676419972</v>
+        <v>0.82616179001721168</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>2.68413169872436E-4</v>
+        <v>2.7906448613721526E-4</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>4.6159981451097377E-5</v>
+        <v>5.5951492667996819E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.40419397116644817</v>
+        <v>0.42149410222804712</v>
       </c>
       <c r="B26">
-        <v>0.75043029259896732</v>
+        <v>0.90189328743545616</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>2.7373882800482566E-4</v>
+        <v>2.8545527589608278E-4</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>5.0822605840097107E-5</v>
+        <v>6.1080379495896518E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.41205766710353858</v>
+        <v>0.43250327653997372</v>
       </c>
       <c r="B27">
-        <v>0.82616179001721168</v>
+        <v>0.96385542168674698</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>2.7906448613721526E-4</v>
+        <v>2.9291119728142826E-4</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>5.5951492667996819E-5</v>
+        <v>6.5276741445996278E-5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.42149410222804712</v>
+        <v>0.4419397116644822</v>
       </c>
       <c r="B28">
-        <v>0.90189328743545616</v>
+        <v>1.01893287435456</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>2.8545527589608278E-4</v>
+        <v>2.9930198704029571E-4</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>6.1080379495896518E-5</v>
+        <v>6.9006840957195993E-5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.43250327653997372</v>
+        <v>0.4513761467889908</v>
       </c>
       <c r="B29">
-        <v>0.96385542168674698</v>
+        <v>1.07401032702237</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>2.9291119728142826E-4</v>
+        <v>3.0569277679916328E-4</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>6.5276741445996278E-5</v>
+        <v>7.2736940468395506E-5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.4419397116644822</v>
+        <v>0.4623853211009174</v>
       </c>
       <c r="B30">
-        <v>1.01893287435456</v>
+        <v>1.1359724612736599</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2.9930198704029571E-4</v>
+        <v>3.1314869818450876E-4</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>6.9006840957195993E-5</v>
+        <v>7.6933302418495198E-5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.4513761467889908</v>
+        <v>0.47182175622542588</v>
       </c>
       <c r="B31">
-        <v>1.07401032702237</v>
+        <v>1.2048192771084301</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>3.0569277679916328E-4</v>
+        <v>3.1953948794337622E-4</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>7.2736940468395506E-5</v>
+        <v>8.159592680749511E-5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.4623853211009174</v>
+        <v>0.48125819134993442</v>
       </c>
       <c r="B32">
-        <v>1.1359724612736599</v>
+        <v>1.26678141135972</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>3.1314869818450876E-4</v>
+        <v>3.2593027770224379E-4</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>7.6933302418495198E-5</v>
+        <v>8.5792288757594802E-5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.47182175622542588</v>
+        <v>0.49384010484927909</v>
       </c>
       <c r="B33">
-        <v>1.2048192771084301</v>
+        <v>1.3218588640275299</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>3.1953948794337622E-4</v>
+        <v>3.3445133071406712E-4</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>8.159592680749511E-5</v>
+        <v>8.9522388268794314E-5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.48125819134993442</v>
+        <v>0.5048492791612057</v>
       </c>
       <c r="B34">
-        <v>1.26678141135972</v>
+        <v>1.3975903614457801</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>3.2593027770224379E-4</v>
+        <v>3.419072520994126E-4</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>8.5792288757594802E-5</v>
+        <v>9.4651275096694406E-5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.49384010484927909</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="B35">
-        <v>1.3218588640275299</v>
+        <v>1.46643717728055</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>3.3445133071406712E-4</v>
+        <v>3.4829804185828011E-4</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>8.9522388268794314E-5</v>
+        <v>9.9313899485694291E-5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.5048492791612057</v>
+        <v>0.52529488859764084</v>
       </c>
       <c r="B36">
-        <v>1.3975903614457801</v>
+        <v>1.5352839931153099</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>3.419072520994126E-4</v>
+        <v>3.5575396324362559E-4</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>9.4651275096694406E-5</v>
+        <v>1.039765238746935E-4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.51428571428571423</v>
+        <v>0.53473132372214938</v>
       </c>
       <c r="B37">
-        <v>1.46643717728055</v>
+        <v>1.6110154905335601</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>3.4829804185828011E-4</v>
+        <v>3.621447530024931E-4</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>9.9313899485694291E-5</v>
+        <v>1.0910541070259362E-4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.52529488859764084</v>
+        <v>0.54416775884665791</v>
       </c>
       <c r="B38">
-        <v>1.5352839931153099</v>
+        <v>1.67986230636833</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>3.5575396324362559E-4</v>
+        <v>3.6853554276136062E-4</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>1.039765238746935E-4</v>
+        <v>1.1376803509159349E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.53473132372214938</v>
+        <v>0.55360419397116645</v>
       </c>
       <c r="B39">
-        <v>1.6110154905335601</v>
+        <v>1.7418244406196199</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>3.621447530024931E-4</v>
+        <v>3.7492633252022818E-4</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>1.0910541070259362E-4</v>
+        <v>1.1796439704169319E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.54416775884665791</v>
+        <v>0.5614678899082568</v>
       </c>
       <c r="B40">
-        <v>1.67986230636833</v>
+        <v>1.8037865748709101</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>3.6853554276136062E-4</v>
+        <v>3.8025199065261773E-4</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>1.1376803509159349E-4</v>
+        <v>1.221607589917929E-4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.55360419397116645</v>
+        <v>0.57247706422018341</v>
       </c>
       <c r="B41">
-        <v>1.7418244406196199</v>
+        <v>1.87263339070568</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>3.7492633252022818E-4</v>
+        <v>3.8770791203796316E-4</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>1.1796439704169319E-4</v>
+        <v>1.2682338338079277E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.5614678899082568</v>
+        <v>0.58034076015727387</v>
       </c>
       <c r="B42">
-        <v>1.8037865748709101</v>
+        <v>1.92771084337349</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>3.8025199065261773E-4</v>
+        <v>3.9303357017035282E-4</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>1.221607589917929E-4</v>
+        <v>1.3055348289199228E-4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.57247706422018341</v>
+        <v>0.58820445609436434</v>
       </c>
       <c r="B43">
-        <v>1.87263339070568</v>
+        <v>1.9965576592082599</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>3.8770791203796316E-4</v>
+        <v>3.9835922830274247E-4</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>1.2682338338079277E-4</v>
+        <v>1.3521610728099218E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.58034076015727387</v>
+        <v>0.59606815203145469</v>
       </c>
       <c r="B44">
-        <v>1.92771084337349</v>
+        <v>2.0585197934595501</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>3.9303357017035282E-4</v>
+        <v>4.0368488643513202E-4</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>1.3055348289199228E-4</v>
+        <v>1.3941246923109192E-4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.58820445609436434</v>
+        <v>0.60550458715596323</v>
       </c>
       <c r="B45">
-        <v>1.9965576592082599</v>
+        <v>2.12048192771084</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>3.9835922830274247E-4</v>
+        <v>4.1007567619399954E-4</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>1.3521610728099218E-4</v>
+        <v>1.4360883118119159E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.59606815203145469</v>
+        <v>0.61494102228047176</v>
       </c>
       <c r="B46">
-        <v>2.0585197934595501</v>
+        <v>2.1962134251290801</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>4.0368488643513202E-4</v>
+        <v>4.164664659528671E-4</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>1.3941246923109192E-4</v>
+        <v>1.4873771800909101E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.60550458715596323</v>
+        <v>0.62280471821756223</v>
       </c>
       <c r="B47">
-        <v>2.12048192771084</v>
+        <v>2.2650602409638498</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>4.1007567619399954E-4</v>
+        <v>4.2179212408525671E-4</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>1.4360883118119159E-4</v>
+        <v>1.5340034239809088E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.61494102228047176</v>
+        <v>0.63224115334207076</v>
       </c>
       <c r="B48">
-        <v>2.1962134251290801</v>
+        <v>2.33390705679862</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>4.164664659528671E-4</v>
+        <v>4.2818291384412422E-4</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>1.4873771800909101E-4</v>
+        <v>1.5806296678709081E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.62280471821756223</v>
+        <v>0.64325032765399737</v>
       </c>
       <c r="B49">
-        <v>2.2650602409638498</v>
+        <v>2.4302925989672901</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>4.2179212408525671E-4</v>
+        <v>4.356388352294697E-4</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>1.5340034239809088E-4</v>
+        <v>1.6459064093169012E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.63224115334207076</v>
+        <v>0.65111402359108772</v>
       </c>
       <c r="B50">
-        <v>2.33390705679862</v>
+        <v>2.49225473321858</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>4.2818291384412422E-4</v>
+        <v>4.4096449336185925E-4</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>1.5806296678709081E-4</v>
+        <v>1.687870028817898E-4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.64325032765399737</v>
+        <v>0.65897771952817819</v>
       </c>
       <c r="B51">
-        <v>2.4302925989672901</v>
+        <v>2.5473321858864</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>4.356388352294697E-4</v>
+        <v>4.4629015149424885E-4</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>1.6459064093169012E-4</v>
+        <v>1.7251710239298999E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.65111402359108772</v>
+        <v>0.66526867627785047</v>
       </c>
       <c r="B52">
-        <v>2.49225473321858</v>
+        <v>2.6092943201376899</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>4.4096449336185925E-4</v>
+        <v>4.5055067800016049E-4</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>1.687870028817898E-4</v>
+        <v>1.767134643430897E-4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.65897771952817819</v>
+        <v>0.67313237221494093</v>
       </c>
       <c r="B53">
-        <v>2.5473321858864</v>
+        <v>2.6781411359724601</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>4.4629015149424885E-4</v>
+        <v>4.5587633613255015E-4</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>1.7251710239298999E-4</v>
+        <v>1.8137608873208959E-4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.66526867627785047</v>
+        <v>0.6809960681520314</v>
       </c>
       <c r="B54">
-        <v>2.6092943201376899</v>
+        <v>2.74010327022375</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>4.5055067800016049E-4</v>
+        <v>4.6120199426493975E-4</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>1.767134643430897E-4</v>
+        <v>1.855724506821893E-4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.67313237221494093</v>
+        <v>0.68728702490170368</v>
       </c>
       <c r="B55">
-        <v>2.6781411359724601</v>
+        <v>2.8089500860585099</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>4.5587633613255015E-4</v>
+        <v>4.6546252077085139E-4</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>1.8137608873208959E-4</v>
+        <v>1.9023507507118849E-4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.6809960681520314</v>
+        <v>0.69515072083879414</v>
       </c>
       <c r="B56">
-        <v>2.74010327022375</v>
+        <v>2.8709122203098101</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>4.6120199426493975E-4</v>
+        <v>4.70788178903241E-4</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>1.855724506821893E-4</v>
+        <v>1.944314370212889E-4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.68728702490170368</v>
+        <v>0.70301441677588461</v>
       </c>
       <c r="B57">
-        <v>2.8089500860585099</v>
+        <v>2.9466437177280498</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>4.6546252077085139E-4</v>
+        <v>4.7611383703563065E-4</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>1.9023507507118849E-4</v>
+        <v>1.9956032384918829E-4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.69515072083879414</v>
+        <v>0.71087811271297507</v>
       </c>
       <c r="B58">
-        <v>2.8709122203098101</v>
+        <v>3.0223752151462899</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>4.70788178903241E-4</v>
+        <v>4.8143949516802026E-4</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>1.944314370212889E-4</v>
+        <v>2.0468921067708768E-4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.70301441677588461</v>
+        <v>0.71874180865006543</v>
       </c>
       <c r="B59">
-        <v>2.9466437177280498</v>
+        <v>3.0774526678141099</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>4.7611383703563065E-4</v>
+        <v>4.8676515330040981E-4</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>1.9956032384918829E-4</v>
+        <v>2.0841931018828787E-4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.71087811271297507</v>
+        <v>0.72660550458715589</v>
       </c>
       <c r="B60">
-        <v>3.0223752151462899</v>
+        <v>3.1394148020653998</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>4.8143949516802026E-4</v>
+        <v>4.9209081143279947E-4</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>2.0468921067708768E-4</v>
+        <v>2.1261567213838757E-4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.71874180865006543</v>
+        <v>0.7313237221494101</v>
       </c>
       <c r="B61">
-        <v>3.0774526678141099</v>
+        <v>3.2082616179001699</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>4.8676515330040981E-4</v>
+        <v>4.9528620631223319E-4</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>2.0841931018828787E-4</v>
+        <v>2.172782965273875E-4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.72660550458715589</v>
+        <v>0.74233289646133671</v>
       </c>
       <c r="B62">
-        <v>3.1394148020653998</v>
+        <v>3.2771084337349299</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>4.9209081143279947E-4</v>
+        <v>5.0274212769757867E-4</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>2.1261567213838757E-4</v>
+        <v>2.2194092091638669E-4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.7313237221494101</v>
+        <v>0.7486238532110091</v>
       </c>
       <c r="B63">
-        <v>3.2082616179001699</v>
+        <v>3.3459552495697</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>4.9528620631223319E-4</v>
+        <v>5.0700265420349031E-4</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>2.172782965273875E-4</v>
+        <v>2.2660354530538662E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.74233289646133671</v>
+        <v>0.75648754914809957</v>
       </c>
       <c r="B64">
-        <v>3.2771084337349299</v>
+        <v>3.4285714285714199</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>5.0274212769757867E-4</v>
+        <v>5.1232831233587997E-4</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>2.2194092091638669E-4</v>
+        <v>2.3219869457218623E-4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.7486238532110091</v>
+        <v>0.76277850589777185</v>
       </c>
       <c r="B65">
-        <v>3.3459552495697</v>
+        <v>3.4974182444061901</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>5.0700265420349031E-4</v>
+        <f t="shared" ref="C65:C72" si="2">A65/1.4765679173556 * 10^(-3)</f>
+        <v>5.1658883884179161E-4</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
-        <v>2.2660354530538662E-4</v>
+        <f t="shared" ref="D65:D72" si="3">B65/1.4765679173556 * 10^(-4)</f>
+        <v>2.368613189611861E-4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.75648754914809957</v>
+        <v>0.77064220183486232</v>
       </c>
       <c r="B66">
-        <v>3.4285714285714199</v>
+        <v>3.5662650602409598</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>5.1232831233587997E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.2191449697418127E-4</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
-        <v>2.3219869457218623E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.4152394335018594E-4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.76277850589777185</v>
+        <v>0.77850589777195278</v>
       </c>
       <c r="B67">
-        <v>3.4974182444061901</v>
+        <v>3.62134251290877</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C74" si="2">A67/1.4765679173556 * 10^(-3)</f>
-        <v>5.1658883884179161E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.2724015510657082E-4</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D74" si="3">B67/1.4765679173556 * 10^(-4)</f>
-        <v>2.368613189611861E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.4525404286138554E-4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.77064220183486232</v>
+        <v>0.78479685452162506</v>
       </c>
       <c r="B68">
-        <v>3.5662650602409598</v>
+        <v>3.6901893287435401</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>5.2191449697418127E-4</v>
+        <v>5.3150068161248256E-4</v>
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>2.4152394335018594E-4</v>
+        <v>2.4991666725038541E-4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.77850589777195278</v>
+        <v>0.79266055045871553</v>
       </c>
       <c r="B69">
-        <v>3.62134251290877</v>
+        <v>3.7590361445783098</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>5.2724015510657082E-4</v>
+        <v>5.3682633974487211E-4</v>
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>2.4525404286138554E-4</v>
+        <v>2.5457929163938528E-4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.78479685452162506</v>
+        <v>0.79895150720838781</v>
       </c>
       <c r="B70">
-        <v>3.6901893287435401</v>
+        <v>3.8209982788296002</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>5.3150068161248256E-4</v>
+        <v>5.4108686625078375E-4</v>
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>2.4991666725038541E-4</v>
+        <v>2.5877565358948504E-4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.79266055045871553</v>
+        <v>0.80366972477064214</v>
       </c>
       <c r="B71">
-        <v>3.7590361445783098</v>
+        <v>3.8829604130808901</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>5.3682633974487211E-4</v>
+        <v>5.4428226113021759E-4</v>
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>2.5457929163938528E-4</v>
+        <v>2.6297201553958469E-4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.79895150720838781</v>
+        <v>0.8115334207077326</v>
       </c>
       <c r="B72">
-        <v>3.8209982788296002</v>
+        <v>3.9518072289156598</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>5.4108686625078375E-4</v>
+        <v>5.4960791926260725E-4</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
-        <v>2.5877565358948504E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>0.80366972477064214</v>
-      </c>
-      <c r="B73">
-        <v>3.8829604130808901</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="2"/>
-        <v>5.4428226113021759E-4</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="3"/>
-        <v>2.6297201553958469E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>0.8115334207077326</v>
-      </c>
-      <c r="B74">
-        <v>3.9518072289156598</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="2"/>
-        <v>5.4960791926260725E-4</v>
-      </c>
-      <c r="D74">
         <f t="shared" si="3"/>
         <v>2.6763463992858462E-4</v>
       </c>
